--- a/challenge#5/KNN_Data-2.xlsx
+++ b/challenge#5/KNN_Data-2.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LSuwayan\Desktop\Fall 2015\EC544\EC544_Group4\challenge#5\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25516"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6396"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -84,10 +82,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -117,22 +131,24 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -145,7 +161,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -204,7 +222,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,7 +257,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -416,7 +434,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -424,19 +442,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="6" max="6" width="12.44140625" style="1"/>
-    <col min="7" max="8" width="12.44140625" style="2"/>
+    <col min="6" max="6" width="12.5" style="1"/>
+    <col min="7" max="8" width="12.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,7 +483,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
+      <c r="A2">
+        <v>56</v>
+      </c>
+      <c r="B2">
+        <v>56</v>
+      </c>
+      <c r="C2">
+        <v>54</v>
+      </c>
+      <c r="D2">
+        <v>49</v>
+      </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
@@ -482,15 +512,27 @@
         <v>170</v>
       </c>
       <c r="M2">
-        <f>(ABS($I$6-A2)+ABS($J$6-B2)+ABS($K$6-C2)+ABS($L$6-D2))</f>
-        <v>224</v>
+        <f t="shared" ref="M2:M49" si="0">(ABS($I$6-A2)+ABS($J$6-B2)+ABS($K$6-C2)+ABS($L$6-D2))</f>
+        <v>27</v>
       </c>
       <c r="N2">
-        <f>SQRT(($I$6-A2)^2+($J$6-B2)^2+($K$6-C2)^2+($L$6-D2)^2)</f>
-        <v>112.70314991161516</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ref="N2:N49" si="1">SQRT(($I$6-A2)^2+($J$6-B2)^2+($K$6-C2)^2+($L$6-D2)^2)</f>
+        <v>14.387494569938159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>73</v>
+      </c>
+      <c r="B3">
+        <v>49</v>
+      </c>
+      <c r="C3">
+        <v>55</v>
+      </c>
+      <c r="D3">
+        <v>51</v>
+      </c>
       <c r="F3" s="1">
         <v>2</v>
       </c>
@@ -501,15 +543,27 @@
         <v>28</v>
       </c>
       <c r="M3">
-        <f>(ABS($I$6-A3)+ABS($J$6-B3)+ABS($K$6-C3)+ABS($L$6-D3))</f>
-        <v>224</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="N3">
-        <f>SQRT(($I$6-A3)^2+($J$6-B3)^2+($K$6-C3)^2+($L$6-D3)^2)</f>
-        <v>112.70314991161516</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>13.341664064126334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>79</v>
+      </c>
+      <c r="B4">
+        <v>46</v>
+      </c>
+      <c r="C4">
+        <v>37</v>
+      </c>
+      <c r="D4">
+        <v>41</v>
+      </c>
       <c r="F4" s="1">
         <v>3</v>
       </c>
@@ -523,15 +577,27 @@
         <v>9</v>
       </c>
       <c r="M4">
-        <f>(ABS($I$6-A4)+ABS($J$6-B4)+ABS($K$6-C4)+ABS($L$6-D4))</f>
-        <v>224</v>
+        <f t="shared" si="0"/>
+        <v>49</v>
       </c>
       <c r="N4">
-        <f>SQRT(($I$6-A4)^2+($J$6-B4)^2+($K$6-C4)^2+($L$6-D4)^2)</f>
-        <v>112.70314991161516</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>25.592967784139454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>71</v>
+      </c>
+      <c r="B5">
+        <v>47</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>49</v>
+      </c>
       <c r="F5" s="1">
         <v>4</v>
       </c>
@@ -554,15 +620,27 @@
         <v>13</v>
       </c>
       <c r="M5">
-        <f>(ABS($I$6-A5)+ABS($J$6-B5)+ABS($K$6-C5)+ABS($L$6-D5))</f>
-        <v>224</v>
+        <f t="shared" si="0"/>
+        <v>29</v>
       </c>
       <c r="N5">
-        <f>SQRT(($I$6-A5)^2+($J$6-B5)^2+($K$6-C5)^2+($L$6-D5)^2)</f>
-        <v>112.70314991161516</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>14.730919862656235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
+        <v>74</v>
+      </c>
+      <c r="B6">
+        <v>49</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>35</v>
+      </c>
       <c r="F6" s="1">
         <v>5</v>
       </c>
@@ -585,15 +663,27 @@
         <v>58</v>
       </c>
       <c r="M6">
-        <f>(ABS($I$6-A6)+ABS($J$6-B6)+ABS($K$6-C6)+ABS($L$6-D6))</f>
-        <v>224</v>
+        <f t="shared" si="0"/>
+        <v>38</v>
       </c>
       <c r="N6">
-        <f>SQRT(($I$6-A6)^2+($J$6-B6)^2+($K$6-C6)^2+($L$6-D6)^2)</f>
-        <v>112.70314991161516</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>25.099800796022265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7">
+        <v>76</v>
+      </c>
+      <c r="B7">
+        <v>43</v>
+      </c>
+      <c r="C7">
+        <v>48</v>
+      </c>
+      <c r="D7">
+        <v>31</v>
+      </c>
       <c r="F7" s="1">
         <v>6</v>
       </c>
@@ -616,15 +706,27 @@
         <v>46</v>
       </c>
       <c r="M7">
-        <f>(ABS($I$6-A7)+ABS($J$6-B7)+ABS($K$6-C7)+ABS($L$6-D7))</f>
-        <v>224</v>
+        <f t="shared" si="0"/>
+        <v>48</v>
       </c>
       <c r="N7">
-        <f>SQRT(($I$6-A7)^2+($J$6-B7)^2+($K$6-C7)^2+($L$6-D7)^2)</f>
-        <v>112.70314991161516</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>30.822070014844883</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
+        <v>71</v>
+      </c>
+      <c r="B8">
+        <v>41</v>
+      </c>
+      <c r="C8">
+        <v>55</v>
+      </c>
+      <c r="D8">
+        <v>40</v>
+      </c>
       <c r="F8" s="1">
         <v>7</v>
       </c>
@@ -647,18 +749,30 @@
         <v>41</v>
       </c>
       <c r="M8">
-        <f>(ABS($I$6-A8)+ABS($J$6-B8)+ABS($K$6-C8)+ABS($L$6-D8))</f>
-        <v>224</v>
+        <f t="shared" si="0"/>
+        <v>43</v>
       </c>
       <c r="N8">
-        <f>SQRT(($I$6-A8)^2+($J$6-B8)^2+($K$6-C8)^2+($L$6-D8)^2)</f>
-        <v>112.70314991161516</v>
+        <f t="shared" si="1"/>
+        <v>23.515952032609693</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
+      <c r="A9">
+        <v>63</v>
+      </c>
+      <c r="B9">
+        <v>45</v>
+      </c>
+      <c r="C9">
+        <v>45</v>
+      </c>
+      <c r="D9">
+        <v>45</v>
+      </c>
       <c r="F9" s="1">
         <v>8</v>
       </c>
@@ -669,18 +783,30 @@
         <v>28</v>
       </c>
       <c r="M9">
-        <f>(ABS($I$6-A9)+ABS($J$6-B9)+ABS($K$6-C9)+ABS($L$6-D9))</f>
-        <v>224</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="N9">
-        <f>SQRT(($I$6-A9)^2+($J$6-B9)^2+($K$6-C9)^2+($L$6-D9)^2)</f>
-        <v>112.70314991161516</v>
+        <f t="shared" si="1"/>
+        <v>15.684387141358123</v>
       </c>
       <c r="O9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <v>73</v>
+      </c>
+      <c r="B10">
+        <v>45</v>
+      </c>
+      <c r="C10">
+        <v>45</v>
+      </c>
+      <c r="D10">
+        <v>37</v>
+      </c>
       <c r="F10" s="1">
         <v>9</v>
       </c>
@@ -691,18 +817,30 @@
         <v>56</v>
       </c>
       <c r="M10">
-        <f>(ABS($I$6-A10)+ABS($J$6-B10)+ABS($K$6-C10)+ABS($L$6-D10))</f>
-        <v>224</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="N10">
-        <f>SQRT(($I$6-A10)^2+($J$6-B10)^2+($K$6-C10)^2+($L$6-D10)^2)</f>
-        <v>112.70314991161516</v>
+        <f t="shared" si="1"/>
+        <v>24.041630560342615</v>
       </c>
       <c r="O10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <v>73</v>
+      </c>
+      <c r="B11">
+        <v>46</v>
+      </c>
+      <c r="C11">
+        <v>42</v>
+      </c>
+      <c r="D11">
+        <v>35</v>
+      </c>
       <c r="F11" s="1">
         <v>10</v>
       </c>
@@ -713,18 +851,30 @@
         <v>84</v>
       </c>
       <c r="M11">
-        <f>(ABS($I$6-A11)+ABS($J$6-B11)+ABS($K$6-C11)+ABS($L$6-D11))</f>
-        <v>224</v>
+        <f t="shared" si="0"/>
+        <v>44</v>
       </c>
       <c r="N11">
-        <f>SQRT(($I$6-A11)^2+($J$6-B11)^2+($K$6-C11)^2+($L$6-D11)^2)</f>
-        <v>112.70314991161516</v>
+        <f t="shared" si="1"/>
+        <v>26.038433132583073</v>
       </c>
       <c r="O11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
+      <c r="A12">
+        <v>69</v>
+      </c>
+      <c r="B12">
+        <v>41</v>
+      </c>
+      <c r="C12">
+        <v>42</v>
+      </c>
+      <c r="D12">
+        <v>34</v>
+      </c>
       <c r="F12" s="1">
         <v>11</v>
       </c>
@@ -735,15 +885,27 @@
         <v>112</v>
       </c>
       <c r="M12">
-        <f>(ABS($I$6-A12)+ABS($J$6-B12)+ABS($K$6-C12)+ABS($L$6-D12))</f>
-        <v>224</v>
+        <f t="shared" si="0"/>
+        <v>46</v>
       </c>
       <c r="N12">
-        <f>SQRT(($I$6-A12)^2+($J$6-B12)^2+($K$6-C12)^2+($L$6-D12)^2)</f>
-        <v>112.70314991161516</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>27.784887978899608</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13">
+        <v>69</v>
+      </c>
+      <c r="B13">
+        <v>38</v>
+      </c>
+      <c r="C13">
+        <v>50</v>
+      </c>
+      <c r="D13">
+        <v>34</v>
+      </c>
       <c r="F13" s="1">
         <v>12</v>
       </c>
@@ -754,15 +916,27 @@
         <v>140</v>
       </c>
       <c r="M13">
-        <f>(ABS($I$6-A13)+ABS($J$6-B13)+ABS($K$6-C13)+ABS($L$6-D13))</f>
-        <v>224</v>
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
       <c r="N13">
-        <f>SQRT(($I$6-A13)^2+($J$6-B13)^2+($K$6-C13)^2+($L$6-D13)^2)</f>
-        <v>112.70314991161516</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>28.653097563788805</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14">
+        <v>69</v>
+      </c>
+      <c r="B14">
+        <v>45</v>
+      </c>
+      <c r="C14">
+        <v>38</v>
+      </c>
+      <c r="D14">
+        <v>48</v>
+      </c>
       <c r="F14" s="1">
         <v>13</v>
       </c>
@@ -773,15 +947,27 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <f>(ABS($I$6-A14)+ABS($J$6-B14)+ABS($K$6-C14)+ABS($L$6-D14))</f>
-        <v>224</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="N14">
-        <f>SQRT(($I$6-A14)^2+($J$6-B14)^2+($K$6-C14)^2+($L$6-D14)^2)</f>
-        <v>112.70314991161516</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>16.733200530681511</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15">
+        <v>69</v>
+      </c>
+      <c r="B15">
+        <v>45</v>
+      </c>
+      <c r="C15">
+        <v>43</v>
+      </c>
+      <c r="D15">
+        <v>48</v>
+      </c>
       <c r="F15" s="1">
         <v>14</v>
       </c>
@@ -792,15 +978,27 @@
         <v>28</v>
       </c>
       <c r="M15">
-        <f>(ABS($I$6-A15)+ABS($J$6-B15)+ABS($K$6-C15)+ABS($L$6-D15))</f>
-        <v>224</v>
+        <f t="shared" si="0"/>
+        <v>27</v>
       </c>
       <c r="N15">
-        <f>SQRT(($I$6-A15)^2+($J$6-B15)^2+($K$6-C15)^2+($L$6-D15)^2)</f>
-        <v>112.70314991161516</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>14.317821063276353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16">
+        <v>72</v>
+      </c>
+      <c r="B16">
+        <v>50</v>
+      </c>
+      <c r="C16">
+        <v>42</v>
+      </c>
+      <c r="D16">
+        <v>51</v>
+      </c>
       <c r="F16" s="1">
         <v>15</v>
       </c>
@@ -811,15 +1009,27 @@
         <v>56</v>
       </c>
       <c r="M16">
-        <f>(ABS($I$6-A16)+ABS($J$6-B16)+ABS($K$6-C16)+ABS($L$6-D16))</f>
-        <v>224</v>
+        <f t="shared" si="0"/>
+        <v>23</v>
       </c>
       <c r="N16">
-        <f>SQRT(($I$6-A16)^2+($J$6-B16)^2+($K$6-C16)^2+($L$6-D16)^2)</f>
-        <v>112.70314991161516</v>
-      </c>
-    </row>
-    <row r="17" spans="6:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>11.958260743101398</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17">
+        <v>71</v>
+      </c>
+      <c r="B17">
+        <v>45</v>
+      </c>
+      <c r="C17">
+        <v>42</v>
+      </c>
+      <c r="D17">
+        <v>46</v>
+      </c>
       <c r="F17" s="1">
         <v>16</v>
       </c>
@@ -830,15 +1040,27 @@
         <v>84</v>
       </c>
       <c r="M17">
-        <f>(ABS($I$6-A17)+ABS($J$6-B17)+ABS($K$6-C17)+ABS($L$6-D17))</f>
-        <v>224</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="N17">
-        <f>SQRT(($I$6-A17)^2+($J$6-B17)^2+($K$6-C17)^2+($L$6-D17)^2)</f>
-        <v>112.70314991161516</v>
-      </c>
-    </row>
-    <row r="18" spans="6:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>16.733200530681511</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18">
+        <v>73</v>
+      </c>
+      <c r="B18">
+        <v>38</v>
+      </c>
+      <c r="C18">
+        <v>48</v>
+      </c>
+      <c r="D18">
+        <v>51</v>
+      </c>
       <c r="F18" s="1">
         <v>17</v>
       </c>
@@ -849,15 +1071,27 @@
         <v>112</v>
       </c>
       <c r="M18">
-        <f>(ABS($I$6-A18)+ABS($J$6-B18)+ABS($K$6-C18)+ABS($L$6-D18))</f>
-        <v>224</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="N18">
-        <f>SQRT(($I$6-A18)^2+($J$6-B18)^2+($K$6-C18)^2+($L$6-D18)^2)</f>
-        <v>112.70314991161516</v>
-      </c>
-    </row>
-    <row r="19" spans="6:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>18.384776310850235</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19">
+        <v>78</v>
+      </c>
+      <c r="B19">
+        <v>47</v>
+      </c>
+      <c r="C19">
+        <v>39</v>
+      </c>
+      <c r="D19">
+        <v>50</v>
+      </c>
       <c r="F19" s="1">
         <v>18</v>
       </c>
@@ -868,585 +1102,1017 @@
         <v>140</v>
       </c>
       <c r="M19">
-        <f>(ABS($I$6-A19)+ABS($J$6-B19)+ABS($K$6-C19)+ABS($L$6-D19))</f>
-        <v>224</v>
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
       <c r="N19">
-        <f>SQRT(($I$6-A19)^2+($J$6-B19)^2+($K$6-C19)^2+($L$6-D19)^2)</f>
-        <v>112.70314991161516</v>
-      </c>
-    </row>
-    <row r="20" spans="6:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>18.708286933869708</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20">
+        <v>67</v>
+      </c>
+      <c r="B20">
+        <v>43</v>
+      </c>
+      <c r="C20">
+        <v>42</v>
+      </c>
+      <c r="D20">
+        <v>44</v>
+      </c>
       <c r="F20" s="1">
         <v>19</v>
       </c>
       <c r="G20" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
       </c>
       <c r="M20">
-        <f>(ABS($I$6-A20)+ABS($J$6-B20)+ABS($K$6-C20)+ABS($L$6-D20))</f>
-        <v>224</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="N20">
-        <f>SQRT(($I$6-A20)^2+($J$6-B20)^2+($K$6-C20)^2+($L$6-D20)^2)</f>
-        <v>112.70314991161516</v>
-      </c>
-    </row>
-    <row r="21" spans="6:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>18.330302779823359</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21">
+        <v>67</v>
+      </c>
+      <c r="B21">
+        <v>55</v>
+      </c>
+      <c r="C21">
+        <v>51</v>
+      </c>
+      <c r="D21">
+        <v>49</v>
+      </c>
       <c r="F21" s="1">
         <v>20</v>
       </c>
       <c r="G21" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H21" s="2">
         <v>28</v>
       </c>
       <c r="M21">
-        <f>(ABS($I$6-A21)+ABS($J$6-B21)+ABS($K$6-C21)+ABS($L$6-D21))</f>
-        <v>224</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="N21">
-        <f>SQRT(($I$6-A21)^2+($J$6-B21)^2+($K$6-C21)^2+($L$6-D21)^2)</f>
-        <v>112.70314991161516</v>
-      </c>
-    </row>
-    <row r="22" spans="6:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>9.8994949366116654</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22">
+        <v>74</v>
+      </c>
+      <c r="B22">
+        <v>43</v>
+      </c>
+      <c r="C22">
+        <v>42</v>
+      </c>
+      <c r="D22">
+        <v>45</v>
+      </c>
       <c r="F22" s="1">
         <v>21</v>
       </c>
       <c r="G22" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H22" s="2">
         <v>56</v>
       </c>
       <c r="M22">
-        <f>(ABS($I$6-A22)+ABS($J$6-B22)+ABS($K$6-C22)+ABS($L$6-D22))</f>
-        <v>224</v>
+        <f t="shared" si="0"/>
+        <v>38</v>
       </c>
       <c r="N22">
-        <f>SQRT(($I$6-A22)^2+($J$6-B22)^2+($K$6-C22)^2+($L$6-D22)^2)</f>
-        <v>112.70314991161516</v>
-      </c>
-    </row>
-    <row r="23" spans="6:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>19.646882704388499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23">
+        <v>77</v>
+      </c>
+      <c r="B23">
+        <v>50</v>
+      </c>
+      <c r="C23">
+        <v>52</v>
+      </c>
+      <c r="D23">
+        <v>43</v>
+      </c>
       <c r="F23" s="1">
         <v>22</v>
       </c>
       <c r="G23" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H23" s="2">
         <v>84</v>
       </c>
       <c r="M23">
-        <f>(ABS($I$6-A23)+ABS($J$6-B23)+ABS($K$6-C23)+ABS($L$6-D23))</f>
-        <v>224</v>
+        <f t="shared" si="0"/>
+        <v>34</v>
       </c>
       <c r="N23">
-        <f>SQRT(($I$6-A23)^2+($J$6-B23)^2+($K$6-C23)^2+($L$6-D23)^2)</f>
-        <v>112.70314991161516</v>
-      </c>
-    </row>
-    <row r="24" spans="6:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>19.849433241279208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24">
+        <v>75</v>
+      </c>
+      <c r="B24">
+        <v>43</v>
+      </c>
+      <c r="C24">
+        <v>37</v>
+      </c>
+      <c r="D24">
+        <v>46</v>
+      </c>
       <c r="F24" s="1">
         <v>23</v>
       </c>
       <c r="G24" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H24" s="2">
         <v>112</v>
       </c>
       <c r="M24">
-        <f>(ABS($I$6-A24)+ABS($J$6-B24)+ABS($K$6-C24)+ABS($L$6-D24))</f>
-        <v>224</v>
+        <f t="shared" si="0"/>
+        <v>43</v>
       </c>
       <c r="N24">
-        <f>SQRT(($I$6-A24)^2+($J$6-B24)^2+($K$6-C24)^2+($L$6-D24)^2)</f>
-        <v>112.70314991161516</v>
-      </c>
-    </row>
-    <row r="25" spans="6:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>21.563858652847824</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25">
+        <v>78</v>
+      </c>
+      <c r="B25">
+        <v>45</v>
+      </c>
+      <c r="C25">
+        <v>46</v>
+      </c>
+      <c r="D25">
+        <v>41</v>
+      </c>
       <c r="F25" s="1">
         <v>24</v>
       </c>
       <c r="G25" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H25" s="2">
         <v>140</v>
       </c>
       <c r="M25">
-        <f>(ABS($I$6-A25)+ABS($J$6-B25)+ABS($K$6-C25)+ABS($L$6-D25))</f>
-        <v>224</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="N25">
-        <f>SQRT(($I$6-A25)^2+($J$6-B25)^2+($K$6-C25)^2+($L$6-D25)^2)</f>
-        <v>112.70314991161516</v>
-      </c>
-    </row>
-    <row r="26" spans="6:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>22.934689882359429</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26">
+        <v>70</v>
+      </c>
+      <c r="B26">
+        <v>45</v>
+      </c>
+      <c r="C26">
+        <v>44</v>
+      </c>
+      <c r="D26">
+        <v>50</v>
+      </c>
       <c r="F26" s="1">
         <v>25</v>
       </c>
       <c r="G26" s="2">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
       </c>
       <c r="M26">
-        <f>(ABS($I$6-A26)+ABS($J$6-B26)+ABS($K$6-C26)+ABS($L$6-D26))</f>
-        <v>224</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="N26">
-        <f>SQRT(($I$6-A26)^2+($J$6-B26)^2+($K$6-C26)^2+($L$6-D26)^2)</f>
-        <v>112.70314991161516</v>
-      </c>
-    </row>
-    <row r="27" spans="6:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27">
+        <v>67</v>
+      </c>
+      <c r="B27">
+        <v>42</v>
+      </c>
+      <c r="C27">
+        <v>40</v>
+      </c>
+      <c r="D27">
+        <v>43</v>
+      </c>
       <c r="F27" s="1">
         <v>26</v>
       </c>
       <c r="G27" s="2">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="H27" s="2">
         <v>28</v>
       </c>
       <c r="M27">
-        <f>(ABS($I$6-A27)+ABS($J$6-B27)+ABS($K$6-C27)+ABS($L$6-D27))</f>
-        <v>224</v>
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
       <c r="N27">
-        <f>SQRT(($I$6-A27)^2+($J$6-B27)^2+($K$6-C27)^2+($L$6-D27)^2)</f>
-        <v>112.70314991161516</v>
-      </c>
-    </row>
-    <row r="28" spans="6:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>20.346989949375804</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28">
+        <v>72</v>
+      </c>
+      <c r="B28">
+        <v>48</v>
+      </c>
+      <c r="C28">
+        <v>45</v>
+      </c>
+      <c r="D28">
+        <v>42</v>
+      </c>
       <c r="F28" s="1">
         <v>27</v>
       </c>
       <c r="G28" s="2">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="H28" s="2">
         <v>56</v>
       </c>
       <c r="M28">
-        <f>(ABS($I$6-A28)+ABS($J$6-B28)+ABS($K$6-C28)+ABS($L$6-D28))</f>
-        <v>224</v>
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="N28">
-        <f>SQRT(($I$6-A28)^2+($J$6-B28)^2+($K$6-C28)^2+($L$6-D28)^2)</f>
-        <v>112.70314991161516</v>
-      </c>
-    </row>
-    <row r="29" spans="6:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>18.411952639521967</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29">
+        <v>76</v>
+      </c>
+      <c r="B29">
+        <v>40</v>
+      </c>
+      <c r="C29">
+        <v>47</v>
+      </c>
+      <c r="D29">
+        <v>46</v>
+      </c>
       <c r="F29" s="1">
         <v>28</v>
       </c>
       <c r="G29" s="2">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="H29" s="2">
         <v>84</v>
       </c>
       <c r="M29">
-        <f>(ABS($I$6-A29)+ABS($J$6-B29)+ABS($K$6-C29)+ABS($L$6-D29))</f>
-        <v>224</v>
+        <f t="shared" si="0"/>
+        <v>37</v>
       </c>
       <c r="N29">
-        <f>SQRT(($I$6-A29)^2+($J$6-B29)^2+($K$6-C29)^2+($L$6-D29)^2)</f>
-        <v>112.70314991161516</v>
-      </c>
-    </row>
-    <row r="30" spans="6:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>20.85665361461421</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30">
+        <v>78</v>
+      </c>
+      <c r="B30">
+        <v>53</v>
+      </c>
+      <c r="C30">
+        <v>45</v>
+      </c>
+      <c r="D30">
+        <v>40</v>
+      </c>
       <c r="F30" s="1">
         <v>29</v>
       </c>
       <c r="G30" s="2">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="H30" s="2">
         <v>112</v>
       </c>
       <c r="M30">
-        <f>(ABS($I$6-A30)+ABS($J$6-B30)+ABS($K$6-C30)+ABS($L$6-D30))</f>
-        <v>224</v>
+        <f t="shared" si="0"/>
+        <v>34</v>
       </c>
       <c r="N30">
-        <f>SQRT(($I$6-A30)^2+($J$6-B30)^2+($K$6-C30)^2+($L$6-D30)^2)</f>
-        <v>112.70314991161516</v>
-      </c>
-    </row>
-    <row r="31" spans="6:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>22.405356502408079</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31">
+        <v>76</v>
+      </c>
+      <c r="B31">
+        <v>45</v>
+      </c>
+      <c r="C31">
+        <v>41</v>
+      </c>
+      <c r="D31">
+        <v>39</v>
+      </c>
       <c r="F31" s="1">
         <v>30</v>
       </c>
       <c r="G31" s="2">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="H31" s="2">
         <v>140</v>
       </c>
       <c r="M31">
-        <f>(ABS($I$6-A31)+ABS($J$6-B31)+ABS($K$6-C31)+ABS($L$6-D31))</f>
-        <v>224</v>
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
       <c r="N31">
-        <f>SQRT(($I$6-A31)^2+($J$6-B31)^2+($K$6-C31)^2+($L$6-D31)^2)</f>
-        <v>112.70314991161516</v>
-      </c>
-    </row>
-    <row r="32" spans="6:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>24.392621835300936</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="F32" s="1">
         <v>31</v>
       </c>
       <c r="G32" s="2">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
       </c>
       <c r="M32">
-        <f>(ABS($I$6-A32)+ABS($J$6-B32)+ABS($K$6-C32)+ABS($L$6-D32))</f>
+        <f t="shared" si="0"/>
         <v>224</v>
       </c>
       <c r="N32">
-        <f>SQRT(($I$6-A32)^2+($J$6-B32)^2+($K$6-C32)^2+($L$6-D32)^2)</f>
+        <f t="shared" si="1"/>
         <v>112.70314991161516</v>
       </c>
     </row>
-    <row r="33" spans="6:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14">
       <c r="F33" s="1">
         <v>32</v>
       </c>
       <c r="G33" s="2">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="H33" s="2">
         <v>28</v>
       </c>
       <c r="M33">
-        <f>(ABS($I$6-A33)+ABS($J$6-B33)+ABS($K$6-C33)+ABS($L$6-D33))</f>
+        <f t="shared" si="0"/>
         <v>224</v>
       </c>
       <c r="N33">
-        <f>SQRT(($I$6-A33)^2+($J$6-B33)^2+($K$6-C33)^2+($L$6-D33)^2)</f>
+        <f t="shared" si="1"/>
         <v>112.70314991161516</v>
       </c>
     </row>
-    <row r="34" spans="6:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14">
+      <c r="A34">
+        <v>70</v>
+      </c>
+      <c r="B34">
+        <v>38</v>
+      </c>
+      <c r="C34">
+        <v>48</v>
+      </c>
+      <c r="D34">
+        <v>41</v>
+      </c>
       <c r="F34" s="1">
         <v>33</v>
       </c>
       <c r="G34" s="2">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="H34" s="2">
         <v>56</v>
       </c>
       <c r="M34">
-        <f>(ABS($I$6-A34)+ABS($J$6-B34)+ABS($K$6-C34)+ABS($L$6-D34))</f>
-        <v>224</v>
+        <f t="shared" si="0"/>
+        <v>37</v>
       </c>
       <c r="N34">
-        <f>SQRT(($I$6-A34)^2+($J$6-B34)^2+($K$6-C34)^2+($L$6-D34)^2)</f>
-        <v>112.70314991161516</v>
-      </c>
-    </row>
-    <row r="35" spans="6:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>23.2163735324878</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35">
+        <v>79</v>
+      </c>
+      <c r="B35">
+        <v>39</v>
+      </c>
+      <c r="C35">
+        <v>41</v>
+      </c>
+      <c r="D35">
+        <v>46</v>
+      </c>
       <c r="F35" s="1">
         <v>34</v>
       </c>
       <c r="G35" s="2">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="H35" s="2">
         <v>84</v>
       </c>
       <c r="M35">
-        <f>(ABS($I$6-A35)+ABS($J$6-B35)+ABS($K$6-C35)+ABS($L$6-D35))</f>
-        <v>224</v>
+        <f t="shared" si="0"/>
+        <v>47</v>
       </c>
       <c r="N35">
-        <f>SQRT(($I$6-A35)^2+($J$6-B35)^2+($K$6-C35)^2+($L$6-D35)^2)</f>
-        <v>112.70314991161516</v>
-      </c>
-    </row>
-    <row r="36" spans="6:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>24.186773244895647</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36">
+        <v>75</v>
+      </c>
+      <c r="B36">
+        <v>42</v>
+      </c>
+      <c r="C36">
+        <v>48</v>
+      </c>
+      <c r="D36">
+        <v>48</v>
+      </c>
       <c r="F36" s="1">
         <v>35</v>
       </c>
       <c r="G36" s="2">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="H36" s="2">
         <v>112</v>
       </c>
       <c r="M36">
-        <f>(ABS($I$6-A36)+ABS($J$6-B36)+ABS($K$6-C36)+ABS($L$6-D36))</f>
-        <v>224</v>
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="N36">
-        <f>SQRT(($I$6-A36)^2+($J$6-B36)^2+($K$6-C36)^2+($L$6-D36)^2)</f>
-        <v>112.70314991161516</v>
-      </c>
-    </row>
-    <row r="37" spans="6:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>17.916472867168917</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37">
+        <v>73</v>
+      </c>
+      <c r="B37">
+        <v>38</v>
+      </c>
+      <c r="C37">
+        <v>49</v>
+      </c>
+      <c r="D37">
+        <v>46</v>
+      </c>
       <c r="F37" s="1">
         <v>36</v>
       </c>
       <c r="G37" s="2">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="H37" s="2">
         <v>140</v>
       </c>
       <c r="M37">
-        <f>(ABS($I$6-A37)+ABS($J$6-B37)+ABS($K$6-C37)+ABS($L$6-D37))</f>
-        <v>224</v>
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
       <c r="N37">
-        <f>SQRT(($I$6-A37)^2+($J$6-B37)^2+($K$6-C37)^2+($L$6-D37)^2)</f>
-        <v>112.70314991161516</v>
-      </c>
-    </row>
-    <row r="38" spans="6:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>20.83266665599966</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38">
+        <v>73</v>
+      </c>
+      <c r="B38">
+        <v>39</v>
+      </c>
+      <c r="C38">
+        <v>50</v>
+      </c>
+      <c r="D38">
+        <v>40</v>
+      </c>
       <c r="F38" s="1">
         <v>37</v>
       </c>
       <c r="G38" s="2">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
       </c>
       <c r="M38">
-        <f>(ABS($I$6-A38)+ABS($J$6-B38)+ABS($K$6-C38)+ABS($L$6-D38))</f>
-        <v>224</v>
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
       <c r="N38">
-        <f>SQRT(($I$6-A38)^2+($J$6-B38)^2+($K$6-C38)^2+($L$6-D38)^2)</f>
-        <v>112.70314991161516</v>
-      </c>
-    </row>
-    <row r="39" spans="6:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>24.248711305964282</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39">
+        <v>74</v>
+      </c>
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>44</v>
+      </c>
+      <c r="D39">
+        <v>43</v>
+      </c>
       <c r="F39" s="1">
         <v>38</v>
       </c>
       <c r="G39" s="2">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="H39" s="2">
         <v>28</v>
       </c>
       <c r="M39">
-        <f>(ABS($I$6-A39)+ABS($J$6-B39)+ABS($K$6-C39)+ABS($L$6-D39))</f>
-        <v>224</v>
+        <f t="shared" si="0"/>
+        <v>44</v>
       </c>
       <c r="N39">
-        <f>SQRT(($I$6-A39)^2+($J$6-B39)^2+($K$6-C39)^2+($L$6-D39)^2)</f>
-        <v>112.70314991161516</v>
-      </c>
-    </row>
-    <row r="40" spans="6:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>24.041630560342615</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40">
+        <v>75</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>48</v>
+      </c>
+      <c r="D40">
+        <v>45</v>
+      </c>
       <c r="F40" s="1">
         <v>39</v>
       </c>
       <c r="G40" s="2">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="H40" s="2">
         <v>56</v>
       </c>
       <c r="M40">
-        <f>(ABS($I$6-A40)+ABS($J$6-B40)+ABS($K$6-C40)+ABS($L$6-D40))</f>
-        <v>224</v>
+        <f t="shared" si="0"/>
+        <v>37</v>
       </c>
       <c r="N40">
-        <f>SQRT(($I$6-A40)^2+($J$6-B40)^2+($K$6-C40)^2+($L$6-D40)^2)</f>
-        <v>112.70314991161516</v>
-      </c>
-    </row>
-    <row r="41" spans="6:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>21.563858652847824</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41">
+        <v>77</v>
+      </c>
+      <c r="B41">
+        <v>43</v>
+      </c>
+      <c r="C41">
+        <v>45</v>
+      </c>
+      <c r="D41">
+        <v>48</v>
+      </c>
       <c r="F41" s="1">
         <v>40</v>
       </c>
       <c r="G41" s="2">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="H41" s="2">
         <v>84</v>
       </c>
       <c r="M41">
-        <f>(ABS($I$6-A41)+ABS($J$6-B41)+ABS($K$6-C41)+ABS($L$6-D41))</f>
-        <v>224</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="N41">
-        <f>SQRT(($I$6-A41)^2+($J$6-B41)^2+($K$6-C41)^2+($L$6-D41)^2)</f>
-        <v>112.70314991161516</v>
-      </c>
-    </row>
-    <row r="42" spans="6:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>18.788294228055936</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42">
+        <v>77</v>
+      </c>
+      <c r="B42">
+        <v>37</v>
+      </c>
+      <c r="C42">
+        <v>39</v>
+      </c>
+      <c r="D42">
+        <v>48</v>
+      </c>
       <c r="F42" s="1">
         <v>41</v>
       </c>
       <c r="G42" s="2">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="H42" s="2">
         <v>112</v>
       </c>
       <c r="M42">
-        <f>(ABS($I$6-A42)+ABS($J$6-B42)+ABS($K$6-C42)+ABS($L$6-D42))</f>
-        <v>224</v>
+        <f t="shared" si="0"/>
+        <v>47</v>
       </c>
       <c r="N42">
-        <f>SQRT(($I$6-A42)^2+($J$6-B42)^2+($K$6-C42)^2+($L$6-D42)^2)</f>
-        <v>112.70314991161516</v>
-      </c>
-    </row>
-    <row r="43" spans="6:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>24.103941586387901</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43">
+        <v>76</v>
+      </c>
+      <c r="B43">
+        <v>39</v>
+      </c>
+      <c r="C43">
+        <v>37</v>
+      </c>
+      <c r="D43">
+        <v>51</v>
+      </c>
       <c r="F43" s="1">
         <v>42</v>
       </c>
       <c r="G43" s="2">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="H43" s="2">
         <v>140</v>
       </c>
       <c r="M43">
-        <f>(ABS($I$6-A43)+ABS($J$6-B43)+ABS($K$6-C43)+ABS($L$6-D43))</f>
-        <v>224</v>
+        <f t="shared" si="0"/>
+        <v>43</v>
       </c>
       <c r="N43">
-        <f>SQRT(($I$6-A43)^2+($J$6-B43)^2+($K$6-C43)^2+($L$6-D43)^2)</f>
-        <v>112.70314991161516</v>
-      </c>
-    </row>
-    <row r="44" spans="6:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>22.06807649071391</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44">
+        <v>75</v>
+      </c>
+      <c r="B44">
+        <v>41</v>
+      </c>
+      <c r="C44">
+        <v>44</v>
+      </c>
+      <c r="D44">
+        <v>47</v>
+      </c>
       <c r="F44" s="1">
         <v>43</v>
       </c>
       <c r="G44" s="2">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
       </c>
       <c r="M44">
-        <f>(ABS($I$6-A44)+ABS($J$6-B44)+ABS($K$6-C44)+ABS($L$6-D44))</f>
-        <v>224</v>
+        <f t="shared" si="0"/>
+        <v>37</v>
       </c>
       <c r="N44">
-        <f>SQRT(($I$6-A44)^2+($J$6-B44)^2+($K$6-C44)^2+($L$6-D44)^2)</f>
-        <v>112.70314991161516</v>
-      </c>
-    </row>
-    <row r="45" spans="6:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>19.519221295943137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45">
+        <v>70</v>
+      </c>
+      <c r="B45">
+        <v>37</v>
+      </c>
+      <c r="C45">
+        <v>44</v>
+      </c>
+      <c r="D45">
+        <v>48</v>
+      </c>
       <c r="F45" s="1">
         <v>44</v>
       </c>
       <c r="G45" s="2">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="H45" s="2">
         <v>28</v>
       </c>
       <c r="M45">
-        <f>(ABS($I$6-A45)+ABS($J$6-B45)+ABS($K$6-C45)+ABS($L$6-D45))</f>
-        <v>224</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="N45">
-        <f>SQRT(($I$6-A45)^2+($J$6-B45)^2+($K$6-C45)^2+($L$6-D45)^2)</f>
-        <v>112.70314991161516</v>
-      </c>
-    </row>
-    <row r="46" spans="6:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>19.924858845171276</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46">
+        <v>74</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>48</v>
+      </c>
+      <c r="D46">
+        <v>50</v>
+      </c>
       <c r="F46" s="1">
         <v>45</v>
       </c>
       <c r="G46" s="2">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="H46" s="2">
         <v>56</v>
       </c>
       <c r="M46">
-        <f>(ABS($I$6-A46)+ABS($J$6-B46)+ABS($K$6-C46)+ABS($L$6-D46))</f>
-        <v>224</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="N46">
-        <f>SQRT(($I$6-A46)^2+($J$6-B46)^2+($K$6-C46)^2+($L$6-D46)^2)</f>
-        <v>112.70314991161516</v>
-      </c>
-    </row>
-    <row r="47" spans="6:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>14.456832294800961</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47">
+        <v>76</v>
+      </c>
+      <c r="B47">
+        <v>40</v>
+      </c>
+      <c r="C47">
+        <v>42</v>
+      </c>
+      <c r="D47">
+        <v>47</v>
+      </c>
       <c r="F47" s="1">
         <v>46</v>
       </c>
       <c r="G47" s="2">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="H47" s="2">
         <v>84</v>
       </c>
       <c r="M47">
-        <f>(ABS($I$6-A47)+ABS($J$6-B47)+ABS($K$6-C47)+ABS($L$6-D47))</f>
-        <v>224</v>
+        <f t="shared" si="0"/>
+        <v>41</v>
       </c>
       <c r="N47">
-        <f>SQRT(($I$6-A47)^2+($J$6-B47)^2+($K$6-C47)^2+($L$6-D47)^2)</f>
-        <v>112.70314991161516</v>
-      </c>
-    </row>
-    <row r="48" spans="6:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>21.142374511865974</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="F48" s="1">
         <v>47</v>
       </c>
       <c r="G48" s="2">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="H48" s="2">
         <v>112</v>
       </c>
       <c r="M48">
-        <f>(ABS($I$6-A48)+ABS($J$6-B48)+ABS($K$6-C48)+ABS($L$6-D48))</f>
+        <f t="shared" si="0"/>
         <v>224</v>
       </c>
       <c r="N48">
-        <f>SQRT(($I$6-A48)^2+($J$6-B48)^2+($K$6-C48)^2+($L$6-D48)^2)</f>
+        <f t="shared" si="1"/>
         <v>112.70314991161516</v>
       </c>
     </row>
-    <row r="49" spans="6:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14">
       <c r="F49" s="1">
         <v>48</v>
       </c>
       <c r="G49" s="2">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="H49" s="2">
         <v>140</v>
       </c>
       <c r="M49">
-        <f>(ABS($I$6-A49)+ABS($J$6-B49)+ABS($K$6-C49)+ABS($L$6-D49))</f>
+        <f t="shared" si="0"/>
         <v>224</v>
       </c>
       <c r="N49">
-        <f>SQRT(($I$6-A49)^2+($J$6-B49)^2+($K$6-C49)^2+($L$6-D49)^2)</f>
+        <f t="shared" si="1"/>
         <v>112.70314991161516</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50">
+        <v>76</v>
+      </c>
+      <c r="B50">
+        <v>31</v>
+      </c>
+      <c r="C50">
+        <v>54</v>
+      </c>
+      <c r="D50">
+        <v>69</v>
+      </c>
+      <c r="F50" s="1">
+        <v>49</v>
+      </c>
+      <c r="G50" s="2">
+        <v>200</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51">
+        <v>74</v>
+      </c>
+      <c r="B51">
+        <v>41</v>
+      </c>
+      <c r="C51">
+        <v>42</v>
+      </c>
+      <c r="D51">
+        <v>57</v>
+      </c>
+      <c r="F51" s="1">
+        <v>50</v>
+      </c>
+      <c r="G51" s="2">
+        <v>200</v>
+      </c>
+      <c r="H51" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52">
+        <v>76</v>
+      </c>
+      <c r="B52">
+        <v>42</v>
+      </c>
+      <c r="C52">
+        <v>48</v>
+      </c>
+      <c r="D52">
+        <v>52</v>
+      </c>
+      <c r="F52" s="1">
+        <v>51</v>
+      </c>
+      <c r="G52" s="2">
+        <v>200</v>
+      </c>
+      <c r="H52" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53">
+        <v>77</v>
+      </c>
+      <c r="B53">
+        <v>41</v>
+      </c>
+      <c r="C53">
+        <v>46</v>
+      </c>
+      <c r="D53">
+        <v>54</v>
+      </c>
+      <c r="F53" s="1">
+        <v>52</v>
+      </c>
+      <c r="G53" s="2">
+        <v>200</v>
+      </c>
+      <c r="H53" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="F54" s="1">
+        <v>53</v>
+      </c>
+      <c r="G54" s="2">
+        <v>200</v>
+      </c>
+      <c r="H54" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="F55" s="1">
+        <v>54</v>
+      </c>
+      <c r="G55" s="2">
+        <v>200</v>
+      </c>
+      <c r="H55" s="2">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>